--- a/PGplan.xlsx
+++ b/PGplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701364\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1601291\Documents\GitHub\TeamA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -350,6 +350,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,65 +410,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,471 +760,433 @@
   <dimension ref="B1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8:U9"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="20">
+      <c r="C2" s="29"/>
+      <c r="D2" s="16">
         <f ca="1">RANDBETWEEN(1,13)</f>
-        <v>12</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16">
         <f t="shared" ref="F2:F14" ca="1" si="0">RANDBETWEEN(1,13)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="12">
+        <f t="shared" ref="H2:H14" ca="1" si="1">RANDBETWEEN(1,13)</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="20">
+        <f t="shared" ref="J2:J14" ca="1" si="2">RANDBETWEEN(1,13)</f>
         <v>13</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="16">
-        <f t="shared" ref="H2:H14" ca="1" si="1">RANDBETWEEN(1,13)</f>
+      <c r="K2" s="21"/>
+      <c r="L2" s="12">
+        <f t="shared" ref="L2:L14" ca="1" si="3">RANDBETWEEN(1,13)</f>
+        <v>4</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="12">
+        <f t="shared" ref="N2:N14" ca="1" si="4">RANDBETWEEN(1,13)</f>
         <v>9</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="24">
-        <f t="shared" ref="J2:J14" ca="1" si="2">RANDBETWEEN(1,13)</f>
-        <v>9</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="16">
-        <f t="shared" ref="L2:L14" ca="1" si="3">RANDBETWEEN(1,13)</f>
-        <v>12</v>
-      </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="16">
-        <f t="shared" ref="N2:N14" ca="1" si="4">RANDBETWEEN(1,13)</f>
-        <v>10</v>
-      </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="16">
+      <c r="O2" s="13"/>
+      <c r="P2" s="12">
         <f t="shared" ref="P2:P14" ca="1" si="5">RANDBETWEEN(1,13)</f>
-        <v>8</v>
-      </c>
-      <c r="Q2" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13"/>
       <c r="R2" s="10"/>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="13"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="10"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="31"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="10"/>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <f t="shared" ref="D4" ca="1" si="6">RANDBETWEEN(1,13)</f>
-        <v>9</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="28">
+        <v>5</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="16">
+        <v>13</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="12">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="24">
+      <c r="I4" s="13"/>
+      <c r="J4" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="10"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="10"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="10"/>
+      <c r="D6" s="12">
+        <f t="shared" ref="D6" ca="1" si="7">RANDBETWEEN(1,13)</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="10"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31"/>
+    </row>
+    <row r="7" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="10"/>
+      <c r="D8" s="12">
+        <f t="shared" ref="D8" ca="1" si="8">RANDBETWEEN(1,13)</f>
+        <v>13</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="10"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="10"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="10"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+    </row>
+    <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="10"/>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10" ca="1" si="9">RANDBETWEEN(1,13)</f>
+        <v>9</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="16">
+      <c r="K10" s="13"/>
+      <c r="L10" s="12">
         <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12">
+        <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="16">
+      <c r="O10" s="13"/>
+      <c r="P10" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="10"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="10"/>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12" ca="1" si="10">RANDBETWEEN(1,13)</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="16">
+        <v>1</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="16">
         <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="10"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="12">
+        <f t="shared" ref="D14" ca="1" si="11">RANDBETWEEN(1,13)</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="10"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="10"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="13"/>
-    </row>
-    <row r="6" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="10"/>
-      <c r="D6" s="16">
-        <f t="shared" ref="D6" ca="1" si="7">RANDBETWEEN(1,13)</f>
-        <v>7</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="24">
+      <c r="G14" s="13"/>
+      <c r="H14" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="24">
+        <v>13</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12">
         <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="16">
+      <c r="M14" s="13"/>
+      <c r="N14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="10"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-    </row>
-    <row r="7" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="10"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="10"/>
-      <c r="D8" s="16">
-        <f t="shared" ref="D8" ca="1" si="8">RANDBETWEEN(1,13)</f>
-        <v>4</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="10"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="10"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="10"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-    </row>
-    <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="10"/>
-      <c r="D10" s="16">
-        <f t="shared" ref="D10" ca="1" si="9">RANDBETWEEN(1,13)</f>
-        <v>4</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="16">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="10"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="10"/>
-      <c r="D12" s="16">
-        <f t="shared" ref="D12" ca="1" si="10">RANDBETWEEN(1,13)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="10"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="16">
-        <f t="shared" ref="D14" ca="1" si="11">RANDBETWEEN(1,13)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="20">
+      <c r="O14" s="17"/>
+      <c r="P14" s="16">
         <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="12" t="s">
+      <c r="Q14" s="17"/>
+      <c r="R14" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="13"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
     <mergeCell ref="R14:S15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="T2:U3"/>
@@ -1241,6 +1203,44 @@
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="D14:E15"/>
     <mergeCell ref="F14:G15"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="N10:O11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,33 +1253,33 @@
   <dimension ref="B1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="F6" sqref="F6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="29"/>
+      <c r="F2" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="29"/>
+      <c r="J2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="32"/>
-      <c r="L2" s="13"/>
-      <c r="N2" s="12" t="s">
+      <c r="L2" s="29"/>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="32"/>
-      <c r="P2" s="13"/>
+      <c r="P2" s="29"/>
       <c r="V2" s="2"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -1295,222 +1295,222 @@
       <c r="AH2" s="4"/>
     </row>
     <row r="3" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="14"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="15"/>
-      <c r="J3" s="14"/>
+      <c r="H3" s="31"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="33"/>
-      <c r="L3" s="15"/>
-      <c r="N3" s="14"/>
+      <c r="L3" s="31"/>
+      <c r="N3" s="30"/>
       <c r="O3" s="33"/>
-      <c r="P3" s="15"/>
+      <c r="P3" s="31"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="13"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="32"/>
-      <c r="H4" s="13"/>
-      <c r="J4" s="34" t="s">
+      <c r="H4" s="29"/>
+      <c r="J4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="32"/>
-      <c r="L4" s="13"/>
-      <c r="N4" s="34" t="s">
+      <c r="L4" s="29"/>
+      <c r="N4" s="35" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="32"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="29"/>
       <c r="V4" s="5"/>
       <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="14"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="31"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="15"/>
-      <c r="J5" s="14"/>
+      <c r="H5" s="31"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="15"/>
-      <c r="N5" s="14"/>
+      <c r="L5" s="31"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="15"/>
+      <c r="P5" s="31"/>
       <c r="V5" s="5"/>
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="13"/>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="29"/>
+      <c r="F6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="13"/>
-      <c r="J6" s="12" t="s">
+      <c r="H6" s="29"/>
+      <c r="J6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="32"/>
-      <c r="L6" s="13"/>
-      <c r="N6" s="12" t="s">
+      <c r="L6" s="29"/>
+      <c r="N6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="32"/>
-      <c r="P6" s="13"/>
+      <c r="P6" s="29"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="X6" s="32"/>
-      <c r="Y6" s="13"/>
+      <c r="Y6" s="29"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="AB6" s="32"/>
-      <c r="AC6" s="13"/>
+      <c r="AC6" s="29"/>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="12" t="s">
+      <c r="AE6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="AF6" s="32"/>
-      <c r="AG6" s="13"/>
+      <c r="AG6" s="29"/>
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="14"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="15"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="31"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="33"/>
-      <c r="H7" s="15"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="31"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="33"/>
-      <c r="L7" s="15"/>
-      <c r="N7" s="14"/>
+      <c r="L7" s="31"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="33"/>
-      <c r="P7" s="15"/>
+      <c r="P7" s="31"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="14"/>
+      <c r="W7" s="30"/>
       <c r="X7" s="33"/>
-      <c r="Y7" s="15"/>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="30"/>
       <c r="AB7" s="33"/>
-      <c r="AC7" s="15"/>
+      <c r="AC7" s="31"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="14"/>
+      <c r="AE7" s="30"/>
       <c r="AF7" s="33"/>
-      <c r="AG7" s="15"/>
+      <c r="AG7" s="31"/>
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V8" s="5"/>
-      <c r="W8" s="12" t="s">
+      <c r="W8" s="28" t="s">
         <v>4</v>
       </c>
       <c r="X8" s="32"/>
-      <c r="Y8" s="13"/>
+      <c r="Y8" s="29"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="12" t="s">
+      <c r="AA8" s="28" t="s">
         <v>4</v>
       </c>
       <c r="AB8" s="32"/>
-      <c r="AC8" s="13"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="12" t="s">
+      <c r="AE8" s="28" t="s">
         <v>4</v>
       </c>
       <c r="AF8" s="32"/>
-      <c r="AG8" s="13"/>
+      <c r="AG8" s="29"/>
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="V9" s="5"/>
-      <c r="W9" s="14"/>
+      <c r="W9" s="30"/>
       <c r="X9" s="33"/>
-      <c r="Y9" s="15"/>
+      <c r="Y9" s="31"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="14"/>
+      <c r="AA9" s="30"/>
       <c r="AB9" s="33"/>
-      <c r="AC9" s="15"/>
+      <c r="AC9" s="31"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="14"/>
+      <c r="AE9" s="30"/>
       <c r="AF9" s="33"/>
-      <c r="AG9" s="15"/>
+      <c r="AG9" s="31"/>
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="28" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="32"/>
-      <c r="P10" s="13"/>
+      <c r="P10" s="29"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="12" t="s">
+      <c r="W10" s="28" t="s">
         <v>5</v>
       </c>
       <c r="X10" s="32"/>
-      <c r="Y10" s="13"/>
+      <c r="Y10" s="29"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="12" t="s">
+      <c r="AA10" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AB10" s="32"/>
-      <c r="AC10" s="13"/>
+      <c r="AC10" s="29"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="12" t="s">
+      <c r="AE10" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF10" s="32"/>
-      <c r="AG10" s="13"/>
+      <c r="AG10" s="29"/>
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N11" s="14"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="33"/>
-      <c r="P11" s="15"/>
+      <c r="P11" s="31"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="14"/>
+      <c r="W11" s="30"/>
       <c r="X11" s="33"/>
-      <c r="Y11" s="15"/>
+      <c r="Y11" s="31"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="14"/>
+      <c r="AA11" s="30"/>
       <c r="AB11" s="33"/>
-      <c r="AC11" s="15"/>
+      <c r="AC11" s="31"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="14"/>
+      <c r="AE11" s="30"/>
       <c r="AF11" s="33"/>
-      <c r="AG11" s="15"/>
+      <c r="AG11" s="31"/>
       <c r="AH11" s="6"/>
     </row>
     <row r="12" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="28" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="32"/>
-      <c r="P12" s="13"/>
+      <c r="P12" s="29"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
@@ -1526,58 +1526,70 @@
       <c r="AH12" s="9"/>
     </row>
     <row r="13" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N13" s="14"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="33"/>
-      <c r="P13" s="15"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="28" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="32"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="13"/>
-      <c r="N15" s="14"/>
+      <c r="E15" s="29"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="33"/>
-      <c r="P15" s="15"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="14"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="3:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="14"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="3:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="14"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="J4:L5"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="C19:E20"/>
     <mergeCell ref="B6:D7"/>
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="AE6:AG7"/>
@@ -1594,18 +1606,6 @@
     <mergeCell ref="N4:P5"/>
     <mergeCell ref="N6:P7"/>
     <mergeCell ref="N10:P11"/>
-    <mergeCell ref="N12:P13"/>
-    <mergeCell ref="N14:P15"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="J4:L5"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PGplan.xlsx
+++ b/PGplan.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="仕様" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -350,6 +351,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,29 +411,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,426 +768,464 @@
   <sheetData>
     <row r="1" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="16">
+      <c r="C2" s="13"/>
+      <c r="D2" s="20">
         <f ca="1">RANDBETWEEN(1,13)</f>
+        <v>8</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20">
+        <f t="shared" ref="F2:F14" ca="1" si="0">RANDBETWEEN(1,13)</f>
+        <v>12</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="16">
+        <f t="shared" ref="H2:H14" ca="1" si="1">RANDBETWEEN(1,13)</f>
+        <v>9</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="24">
+        <f t="shared" ref="J2:J14" ca="1" si="2">RANDBETWEEN(1,13)</f>
+        <v>6</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="16">
+        <f t="shared" ref="L2:L14" ca="1" si="3">RANDBETWEEN(1,13)</f>
+        <v>9</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="16">
+        <f t="shared" ref="N2:N14" ca="1" si="4">RANDBETWEEN(1,13)</f>
+        <v>12</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="P2" s="16">
+        <f t="shared" ref="P2:P14" ca="1" si="5">RANDBETWEEN(1,13)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16">
-        <f t="shared" ref="F2:F14" ca="1" si="0">RANDBETWEEN(1,13)</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="12">
-        <f t="shared" ref="H2:H14" ca="1" si="1">RANDBETWEEN(1,13)</f>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="10"/>
+      <c r="T2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="20">
-        <f t="shared" ref="J2:J14" ca="1" si="2">RANDBETWEEN(1,13)</f>
-        <v>13</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="12">
-        <f t="shared" ref="L2:L14" ca="1" si="3">RANDBETWEEN(1,13)</f>
-        <v>4</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="12">
-        <f t="shared" ref="N2:N14" ca="1" si="4">RANDBETWEEN(1,13)</f>
-        <v>9</v>
-      </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="12">
-        <f t="shared" ref="P2:P14" ca="1" si="5">RANDBETWEEN(1,13)</f>
-        <v>1</v>
-      </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="10"/>
-      <c r="T2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="29"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
       <c r="R3" s="10"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="31"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="10"/>
-      <c r="D4" s="24">
+      <c r="D4" s="28">
         <f t="shared" ref="D4" ca="1" si="6">RANDBETWEEN(1,13)</f>
-        <v>5</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24">
+        <v>3</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="20">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="12">
+        <v>4</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="16">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="12">
+      <c r="M4" s="17"/>
+      <c r="N4" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="10"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="10"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="10"/>
+      <c r="D6" s="16">
+        <f t="shared" ref="D6" ca="1" si="7">RANDBETWEEN(1,13)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="N6" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="10"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="10"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="10"/>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8" ca="1" si="8">RANDBETWEEN(1,13)</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="10"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="10"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="10"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
+    </row>
+    <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="10"/>
+      <c r="D10" s="16">
+        <f t="shared" ref="D10" ca="1" si="9">RANDBETWEEN(1,13)</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="16">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="12">
+      <c r="O10" s="17"/>
+      <c r="P10" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="10"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="10"/>
+      <c r="D12" s="16">
+        <f t="shared" ref="D12" ca="1" si="10">RANDBETWEEN(1,13)</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O12" s="21"/>
+      <c r="P12" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="10"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="16">
+        <f t="shared" ref="D14" ca="1" si="11">RANDBETWEEN(1,13)</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O14" s="21"/>
+      <c r="P14" s="20">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="10"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="10"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29"/>
-    </row>
-    <row r="6" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="10"/>
-      <c r="D6" s="12">
-        <f t="shared" ref="D6" ca="1" si="7">RANDBETWEEN(1,13)</f>
-        <v>9</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="12">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="12">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="10"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="31"/>
-    </row>
-    <row r="7" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="10"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="10"/>
-      <c r="D8" s="12">
-        <f t="shared" ref="D8" ca="1" si="8">RANDBETWEEN(1,13)</f>
-        <v>13</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="12">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="10"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="29"/>
-    </row>
-    <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="10"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="10"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="31"/>
-    </row>
-    <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="10"/>
-      <c r="D10" s="12">
-        <f t="shared" ref="D10" ca="1" si="9">RANDBETWEEN(1,13)</f>
-        <v>9</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="12">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="10"/>
-      <c r="D12" s="12">
-        <f t="shared" ref="D12" ca="1" si="10">RANDBETWEEN(1,13)</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="16">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="10"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="12">
-        <f t="shared" ref="D14" ca="1" si="11">RANDBETWEEN(1,13)</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="16">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="29"/>
+      <c r="S14" s="13"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
     <mergeCell ref="R14:S15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="T2:U3"/>
@@ -1203,44 +1242,6 @@
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="D14:E15"/>
     <mergeCell ref="F14:G15"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="N10:O11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1252,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6:H7"/>
     </sheetView>
   </sheetViews>
@@ -1260,26 +1261,26 @@
   <sheetData>
     <row r="1" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="29"/>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="13"/>
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="29"/>
-      <c r="J2" s="28" t="s">
+      <c r="H2" s="13"/>
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="32"/>
-      <c r="L2" s="29"/>
-      <c r="N2" s="28" t="s">
+      <c r="L2" s="13"/>
+      <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="32"/>
-      <c r="P2" s="29"/>
+      <c r="P2" s="13"/>
       <c r="V2" s="2"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -1295,222 +1296,222 @@
       <c r="AH2" s="4"/>
     </row>
     <row r="3" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="30"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="31"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="15"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="31"/>
-      <c r="J3" s="30"/>
+      <c r="H3" s="15"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="33"/>
-      <c r="L3" s="31"/>
-      <c r="N3" s="30"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="33"/>
-      <c r="P3" s="31"/>
+      <c r="P3" s="15"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="29"/>
-      <c r="F4" s="28" t="s">
+      <c r="D4" s="13"/>
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="32"/>
-      <c r="H4" s="29"/>
-      <c r="J4" s="35" t="s">
+      <c r="H4" s="13"/>
+      <c r="J4" s="34" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="32"/>
-      <c r="L4" s="29"/>
-      <c r="N4" s="35" t="s">
+      <c r="L4" s="13"/>
+      <c r="N4" s="34" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="32"/>
-      <c r="P4" s="29"/>
+      <c r="P4" s="13"/>
       <c r="V4" s="5"/>
       <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="30"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="31"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="15"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="J5" s="30"/>
+      <c r="H5" s="15"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="31"/>
-      <c r="N5" s="30"/>
+      <c r="L5" s="15"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="31"/>
+      <c r="P5" s="15"/>
       <c r="V5" s="5"/>
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="29"/>
-      <c r="F6" s="28" t="s">
+      <c r="D6" s="13"/>
+      <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="28" t="s">
+      <c r="H6" s="13"/>
+      <c r="J6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="32"/>
-      <c r="L6" s="29"/>
-      <c r="N6" s="28" t="s">
+      <c r="L6" s="13"/>
+      <c r="N6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="32"/>
-      <c r="P6" s="29"/>
+      <c r="P6" s="13"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="X6" s="32"/>
-      <c r="Y6" s="29"/>
+      <c r="Y6" s="13"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="28" t="s">
+      <c r="AA6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="AB6" s="32"/>
-      <c r="AC6" s="29"/>
+      <c r="AC6" s="13"/>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="28" t="s">
+      <c r="AE6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="AF6" s="32"/>
-      <c r="AG6" s="29"/>
+      <c r="AG6" s="13"/>
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="30"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="31"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="15"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="J7" s="30"/>
+      <c r="H7" s="15"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="33"/>
-      <c r="L7" s="31"/>
-      <c r="N7" s="30"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="33"/>
-      <c r="P7" s="31"/>
+      <c r="P7" s="15"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="30"/>
+      <c r="W7" s="14"/>
       <c r="X7" s="33"/>
-      <c r="Y7" s="31"/>
+      <c r="Y7" s="15"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="30"/>
+      <c r="AA7" s="14"/>
       <c r="AB7" s="33"/>
-      <c r="AC7" s="31"/>
+      <c r="AC7" s="15"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="30"/>
+      <c r="AE7" s="14"/>
       <c r="AF7" s="33"/>
-      <c r="AG7" s="31"/>
+      <c r="AG7" s="15"/>
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V8" s="5"/>
-      <c r="W8" s="28" t="s">
+      <c r="W8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="X8" s="32"/>
-      <c r="Y8" s="29"/>
+      <c r="Y8" s="13"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="28" t="s">
+      <c r="AA8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="AB8" s="32"/>
-      <c r="AC8" s="29"/>
+      <c r="AC8" s="13"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="28" t="s">
+      <c r="AE8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="AF8" s="32"/>
-      <c r="AG8" s="29"/>
+      <c r="AG8" s="13"/>
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="V9" s="5"/>
-      <c r="W9" s="30"/>
+      <c r="W9" s="14"/>
       <c r="X9" s="33"/>
-      <c r="Y9" s="31"/>
+      <c r="Y9" s="15"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="30"/>
+      <c r="AA9" s="14"/>
       <c r="AB9" s="33"/>
-      <c r="AC9" s="31"/>
+      <c r="AC9" s="15"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="30"/>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="33"/>
-      <c r="AG9" s="31"/>
+      <c r="AG9" s="15"/>
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="32"/>
-      <c r="P10" s="29"/>
+      <c r="P10" s="13"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="28" t="s">
+      <c r="W10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="X10" s="32"/>
-      <c r="Y10" s="29"/>
+      <c r="Y10" s="13"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="28" t="s">
+      <c r="AA10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AB10" s="32"/>
-      <c r="AC10" s="29"/>
+      <c r="AC10" s="13"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="28" t="s">
+      <c r="AE10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AF10" s="32"/>
-      <c r="AG10" s="29"/>
+      <c r="AG10" s="13"/>
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N11" s="30"/>
+      <c r="N11" s="14"/>
       <c r="O11" s="33"/>
-      <c r="P11" s="31"/>
+      <c r="P11" s="15"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="30"/>
+      <c r="W11" s="14"/>
       <c r="X11" s="33"/>
-      <c r="Y11" s="31"/>
+      <c r="Y11" s="15"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="30"/>
+      <c r="AA11" s="14"/>
       <c r="AB11" s="33"/>
-      <c r="AC11" s="31"/>
+      <c r="AC11" s="15"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="30"/>
+      <c r="AE11" s="14"/>
       <c r="AF11" s="33"/>
-      <c r="AG11" s="31"/>
+      <c r="AG11" s="15"/>
       <c r="AH11" s="6"/>
     </row>
     <row r="12" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="12" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="32"/>
-      <c r="P12" s="29"/>
+      <c r="P12" s="13"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
@@ -1526,71 +1527,58 @@
       <c r="AH12" s="9"/>
     </row>
     <row r="13" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N13" s="30"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="33"/>
-      <c r="P13" s="31"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="32"/>
-      <c r="P14" s="29"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="29"/>
-      <c r="N15" s="30"/>
+      <c r="E15" s="13"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="33"/>
-      <c r="P15" s="31"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="30"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="3:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="30"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="29"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="3:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="30"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="J4:L5"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="N12:P13"/>
-    <mergeCell ref="N14:P15"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="B6:D7"/>
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="AE6:AG7"/>
     <mergeCell ref="AE8:AG9"/>
@@ -1606,9 +1594,37 @@
     <mergeCell ref="N4:P5"/>
     <mergeCell ref="N6:P7"/>
     <mergeCell ref="N10:P11"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="J4:L5"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="B6:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PGplan.xlsx
+++ b/PGplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1601291\Documents\GitHub\TeamA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1601270\Documents\GitHub\TeamA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>ＪＯＫＥＲ</t>
     <phoneticPr fontId="1"/>
@@ -142,12 +142,468 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードの手札所持</t>
+    <rPh sb="4" eb="6">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡(ゲームオーバー)</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードの使用</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分が持っている番号と加算減算などをさせるかどうか？</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペードの場合</t>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラブの場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記号</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ダイア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の場合</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ハート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の場合</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4方向</t>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そもそも何が楽しいのか？</t>
+    <rPh sb="4" eb="5">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１ターンに1枚</t>
+    <rPh sb="6" eb="7">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号が1~21ではなくなった時</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動範囲</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1マス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4種類</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SnakeTrumpの要素</t>
+    <rPh sb="11" eb="13">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードのスート・数字と盤面との数字の駆け引きが楽しい</t>
+    <rPh sb="8" eb="10">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんな駆け引きがある？</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※補足情報※</t>
+    <rPh sb="1" eb="3">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(例)プレイヤーが♠/15の時、♠2のマスに進んだとき、通常は15 + 2 = 17なのだが、同スート間の計算なので右辺が倍加する。つまり、15 + 4 = 19となる。これは他のスートも同様で、♣同士だと倍加算、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>♥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>♦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同士なら倍減算になる。</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ウヘン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バイカ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ゲンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同スート間でのバフ</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加要素</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×、÷、%は盤面上に3個とか4個ならまだいいが、スートと紐づけるなら盤面に多く配置されプレイ難易度がかなり上がるため却下。</t>
+    <rPh sb="6" eb="8">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キャッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ直進すれば数字が溢れて、遠回りしすぎると盤面が埋まっていき手詰まりになる。さらに、スートに紐づいた効果に左右されてしまう。</t>
+    <rPh sb="2" eb="4">
+      <t>チョクシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アフ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トオマワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テヅ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +655,55 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +722,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB3B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -308,13 +823,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,6 +1108,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,52 +1168,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,8 +1180,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,6 +1285,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB3B3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -761,471 +1622,433 @@
   <dimension ref="B1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="20">
+      <c r="C2" s="29"/>
+      <c r="D2" s="16">
         <f ca="1">RANDBETWEEN(1,13)</f>
-        <v>8</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20">
+        <v>5</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16">
         <f t="shared" ref="F2:F14" ca="1" si="0">RANDBETWEEN(1,13)</f>
-        <v>12</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="16">
+        <v>13</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="12">
         <f t="shared" ref="H2:H14" ca="1" si="1">RANDBETWEEN(1,13)</f>
-        <v>9</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="24">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="20">
         <f t="shared" ref="J2:J14" ca="1" si="2">RANDBETWEEN(1,13)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="12">
+        <f t="shared" ref="L2:L14" ca="1" si="3">RANDBETWEEN(1,13)</f>
         <v>6</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="16">
-        <f t="shared" ref="L2:L14" ca="1" si="3">RANDBETWEEN(1,13)</f>
-        <v>9</v>
-      </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="16">
+      <c r="M2" s="13"/>
+      <c r="N2" s="12">
         <f t="shared" ref="N2:N14" ca="1" si="4">RANDBETWEEN(1,13)</f>
-        <v>12</v>
-      </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="16">
+        <v>1</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="12">
         <f t="shared" ref="P2:P14" ca="1" si="5">RANDBETWEEN(1,13)</f>
-        <v>3</v>
-      </c>
-      <c r="Q2" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13"/>
       <c r="R2" s="10"/>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="13"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="10"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="31"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="10"/>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <f t="shared" ref="D4" ca="1" si="6">RANDBETWEEN(1,13)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="28">
+      <c r="G4" s="25"/>
+      <c r="H4" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="10"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="10"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="10"/>
+      <c r="D6" s="12">
+        <f t="shared" ref="D6" ca="1" si="7">RANDBETWEEN(1,13)</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="10"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31"/>
+    </row>
+    <row r="7" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="10"/>
+      <c r="D8" s="12">
+        <f t="shared" ref="D8" ca="1" si="8">RANDBETWEEN(1,13)</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="10"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="10"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="10"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+    </row>
+    <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="10"/>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10" ca="1" si="9">RANDBETWEEN(1,13)</f>
+        <v>13</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="10"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="10"/>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12" ca="1" si="10">RANDBETWEEN(1,13)</f>
+        <v>8</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="16">
+      <c r="G12" s="13"/>
+      <c r="H12" s="12">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="24">
+      <c r="I12" s="13"/>
+      <c r="J12" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="10"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="12">
+        <f t="shared" ref="D14" ca="1" si="11">RANDBETWEEN(1,13)</f>
+        <v>11</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="16">
+      <c r="K14" s="13"/>
+      <c r="L14" s="12">
         <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="16">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="10"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="10"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="13"/>
-    </row>
-    <row r="6" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="10"/>
-      <c r="D6" s="16">
-        <f t="shared" ref="D6" ca="1" si="7">RANDBETWEEN(1,13)</f>
-        <v>5</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="16">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="24">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="16">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="10"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-    </row>
-    <row r="7" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="10"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="10"/>
-      <c r="D8" s="16">
-        <f t="shared" ref="D8" ca="1" si="8">RANDBETWEEN(1,13)</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="10"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="10"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="10"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-    </row>
-    <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="10"/>
-      <c r="D10" s="16">
-        <f t="shared" ref="D10" ca="1" si="9">RANDBETWEEN(1,13)</f>
-        <v>7</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="16">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="10"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="10"/>
-      <c r="D12" s="16">
-        <f t="shared" ref="D12" ca="1" si="10">RANDBETWEEN(1,13)</f>
-        <v>7</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="10"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="16">
-        <f t="shared" ref="D14" ca="1" si="11">RANDBETWEEN(1,13)</f>
-        <v>8</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="13"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
     <mergeCell ref="R14:S15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="T2:U3"/>
@@ -1242,6 +2065,44 @@
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="D14:E15"/>
     <mergeCell ref="F14:G15"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="N10:O11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,34 +2114,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="29"/>
+      <c r="F2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="29"/>
+      <c r="J2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="13"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="29"/>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="13"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="29"/>
       <c r="V2" s="2"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -1296,222 +2157,222 @@
       <c r="AH2" s="4"/>
     </row>
     <row r="3" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="14"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="15"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="15"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="15"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="31"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="31"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="31"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="13"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="13"/>
-      <c r="J4" s="34" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="29"/>
+      <c r="J4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="13"/>
-      <c r="N4" s="34" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="29"/>
+      <c r="N4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="13"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="29"/>
       <c r="V4" s="5"/>
       <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="14"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="15"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="15"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="15"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="31"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="31"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="31"/>
       <c r="V5" s="5"/>
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="13"/>
-      <c r="F6" s="12" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="29"/>
+      <c r="F6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="13"/>
-      <c r="J6" s="12" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="13"/>
-      <c r="N6" s="12" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="29"/>
+      <c r="N6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="29"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="13"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="29"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="13"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="29"/>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="12" t="s">
+      <c r="AE6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="13"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="29"/>
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="14"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="15"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="15"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="15"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="31"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="31"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="31"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="31"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="15"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="15"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="31"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="15"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="31"/>
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V8" s="5"/>
-      <c r="W8" s="12" t="s">
+      <c r="W8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="13"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="29"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="12" t="s">
+      <c r="AA8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="13"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="12" t="s">
+      <c r="AE8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="13"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="29"/>
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="V9" s="5"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="15"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="31"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="15"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="31"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="15"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="31"/>
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="13"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="29"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="12" t="s">
+      <c r="W10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="13"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="29"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="12" t="s">
+      <c r="AA10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="13"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="29"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="12" t="s">
+      <c r="AE10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="13"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="29"/>
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N11" s="14"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="15"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="31"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="15"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="31"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="15"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="31"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="15"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="31"/>
       <c r="AH11" s="6"/>
     </row>
     <row r="12" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="13"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="29"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
@@ -1527,58 +2388,71 @@
       <c r="AH12" s="9"/>
     </row>
     <row r="13" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N13" s="14"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="15"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="13"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="15"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="29"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="14"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="3:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="14"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="3:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="14"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="J4:L5"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="C19:E20"/>
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="AE6:AG7"/>
     <mergeCell ref="AE8:AG9"/>
@@ -1594,19 +2468,6 @@
     <mergeCell ref="N4:P5"/>
     <mergeCell ref="N6:P7"/>
     <mergeCell ref="N10:P11"/>
-    <mergeCell ref="N12:P13"/>
-    <mergeCell ref="N14:P15"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="J4:L5"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="B6:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1616,15 +2477,373 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.296875" customWidth="1"/>
+    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.296875" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.296875" customWidth="1"/>
+    <col min="7" max="41" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="E2" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="54"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+    </row>
+    <row r="7" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B10" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B15" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="59"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B16" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="64"/>
+      <c r="V16" s="61"/>
+    </row>
+    <row r="17" spans="2:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E18" s="66"/>
+      <c r="F18" s="64"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="68"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>